--- a/medicine/Sexualité et sexologie/Patrick_Wald_Lasowski/Patrick_Wald_Lasowski.xlsx
+++ b/medicine/Sexualité et sexologie/Patrick_Wald_Lasowski/Patrick_Wald_Lasowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Wald Lasowski, spécialiste de la littérature des XVIIIe et XIXe siècles[1], est un professeur et essayiste des libertins[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Wald Lasowski, spécialiste de la littérature des XVIIIe et XIXe siècles, est un professeur et essayiste des libertins.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, Patrick Wald Lasowski est professeur à l'université de Paris 8-Vincennes-Saint-Denis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, Patrick Wald Lasowski est professeur à l'université de Paris 8-Vincennes-Saint-Denis.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Échafauds du romanesque, Presses universitaires de Lille, 1991  (ISBN 9782859393939)
-La Maison Maupassant, Éditions Gallimard, 2009  (ISBN 9782070121373)[2],[3],[4]
+La Maison Maupassant, Éditions Gallimard, 2009  (ISBN 9782070121373)
 L'Amour au temps des libertins, First Editions, 2011  (ISBN 2754018867)
-La Terreur, Le Cherche Midi, roman, 2014  (ISBN 2749141060)[5]
+La Terreur, Le Cherche Midi, roman, 2014  (ISBN 2749141060)
 Les Singes de Dieu, Le Cherche Midi, 2016  (ISBN 2749145120)</t>
         </is>
       </c>
